--- a/Unity/Assets/Config/Excel/StartConfig/Benchmark/StartProcessConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Benchmark/StartProcessConfig.xlsx
@@ -283,7 +283,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -367,10 +367,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>20101</v>
+        <v>20103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,132 +378,45 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>20102</v>
+        <v>20104</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>20103</v>
-      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>20104</v>
-      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>20101</v>
-      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>20102</v>
-      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>20103</v>
-      </c>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>20104</v>
-      </c>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>20105</v>
-      </c>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>20106</v>
-      </c>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>20107</v>
-      </c>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>20108</v>
-      </c>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>20109</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7"/>
